--- a/data/PI1_Ageev_Lab2.xlsx
+++ b/data/PI1_Ageev_Lab2.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ageev\OneDrive\Рабочий стол\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ageev\CLionProjects\cpp_practice\algolab2\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2436A16-F471-4E9B-B1C4-DB63305B67F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA54D6A5-7A73-4573-A176-0B708A978F35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -7830,16 +7830,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>586740</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
       <xdr:colOff>22860</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>175260</xdr:rowOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>8106</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -7881,8 +7881,8 @@
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>586740</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>175260</xdr:rowOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>22860</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -7924,8 +7924,8 @@
     <xdr:to>
       <xdr:col>16</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>7620</xdr:rowOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>7256</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -7967,8 +7967,8 @@
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>601980</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>175260</xdr:rowOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>45720</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -8263,8 +8263,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{469272F2-DCBF-4780-8EA5-A355D3414EFA}">
   <dimension ref="A1:D26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+    <sheetView zoomScale="88" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8581,8 +8581,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37DFD1E4-0017-475B-B14A-A06AE65D72BE}">
   <dimension ref="A1:D22"/>
   <sheetViews>
-    <sheetView zoomScale="94" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView topLeftCell="B1" zoomScale="106" workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8876,8 +8876,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B06782C-CFF0-4E5B-BE82-C58720F6954E}">
   <dimension ref="A1:D19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+    <sheetView zoomScale="103" workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9165,7 +9165,7 @@
   <dimension ref="A1:D19"/>
   <sheetViews>
     <sheetView zoomScale="105" zoomScaleNormal="85" workbookViewId="0">
-      <selection sqref="A1:D19"/>
+      <selection activeCell="J30" sqref="J30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
